--- a/Artifactory_looad_test.xlsx
+++ b/Artifactory_looad_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFrog\客户支持\OPPO\压力测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc/Documents/JFrog/客户支持/广发银行/压力测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2EB880-93F2-44FC-B515-01B64E5D4B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A18B8E-5A5E-9343-B318-66A76903592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27180" yWindow="500" windowWidth="22980" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 nodes" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,21 @@
     <sheet name="15000M" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="69">
   <si>
     <t>Requests</t>
   </si>
@@ -720,16 +730,22 @@
 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -749,20 +765,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3D3D3D"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -775,7 +791,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -788,7 +804,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -865,8 +881,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,8 +932,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1210,13 +1238,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,12 +1341,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1379,9 +1413,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1443,12 +1474,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,9 +1542,28 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
     <dxf>
@@ -2028,13 +2072,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color rgb="FFDDDDDD"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
         </left>
@@ -2067,6 +2104,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2609,13 +2653,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color rgb="FFDDDDDD"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
         </left>
@@ -2643,11 +2680,18 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
+          <fgColor indexed="64"/>
           <bgColor rgb="FFEBF2FA"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3190,13 +3234,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color rgb="FFDDDDDD"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
         </left>
@@ -3231,38 +3268,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99BFE6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
+      <border outline="0">
+        <bottom style="thick">
           <color rgb="FFDDDDDD"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFDDDDDD"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3299,31 +3308,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color rgb="FF3D3D3D"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBF2FA"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3831,19 +3815,79 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFDDDDDD"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF3D3D3D"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFEBF2FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thick">
           <color rgb="FFDDDDDD"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99BFE6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
         </left>
-        <top style="medium">
+        <right style="medium">
           <color rgb="FFDDDDDD"/>
-        </top>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3862,7 +3906,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3941,7 +3985,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4723,7 +4767,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4761,7 +4805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -4847,7 +4891,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4879,7 +4923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -4945,7 +4989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4977,7 +5021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -5046,7 +5090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5079,7 +5123,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5093,7 +5137,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5175,7 +5219,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5734,7 +5778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5772,7 +5816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -5859,7 +5903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5891,7 +5935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -5958,7 +6002,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5990,7 +6034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -6059,7 +6103,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6092,7 +6136,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6106,7 +6150,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6818,7 +6862,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6856,7 +6900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -6942,7 +6986,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6974,7 +7018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -7041,7 +7085,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7073,7 +7117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -7142,7 +7186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7175,7 +7219,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7189,7 +7233,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7766,7 +7810,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7804,7 +7848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -7891,7 +7935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7923,7 +7967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -7990,7 +8034,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8022,7 +8066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -8101,7 +8145,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8134,7 +8178,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8148,7 +8192,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8227,7 +8271,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8853,7 +8897,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8891,7 +8935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -8977,7 +9021,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9009,7 +9053,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -9076,7 +9120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9108,7 +9152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -9177,7 +9221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9210,7 +9254,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9224,7 +9268,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9306,7 +9350,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9826,7 +9870,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9864,7 +9908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -9951,7 +9995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9983,7 +10027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -10050,7 +10094,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10082,7 +10126,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -10151,7 +10195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10184,7 +10228,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10198,7 +10242,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10533,7 +10577,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'1000M'!$U$1</c15:sqref>
@@ -10560,7 +10604,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'1000M'!$R$2:$R$9</c15:sqref>
@@ -10599,7 +10643,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'1000M'!$U$2:$U$9</c15:sqref>
@@ -10612,7 +10656,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2305-418F-BEBB-94E135207D6D}"/>
                   </c:ext>
@@ -10829,7 +10873,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10867,7 +10911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -10953,7 +10997,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10985,7 +11029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -11051,7 +11095,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11083,7 +11127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -11152,7 +11196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11185,7 +11229,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11199,7 +11243,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11534,7 +11578,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'1000M'!$U$11</c15:sqref>
@@ -11561,7 +11605,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'1000M'!$R$12:$R$19</c15:sqref>
@@ -11600,7 +11644,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'1000M'!$U$12:$U$19</c15:sqref>
@@ -11613,7 +11657,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-26D9-43D4-8771-42B8893DB9FC}"/>
                   </c:ext>
@@ -11778,7 +11822,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11816,7 +11860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -11903,7 +11947,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11935,7 +11979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -12002,7 +12046,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12034,7 +12078,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -12113,7 +12157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12146,7 +12190,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12160,7 +12204,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12242,7 +12286,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12747,7 +12791,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12785,7 +12829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -12872,7 +12916,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12904,7 +12948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -12971,7 +13015,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13003,7 +13047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -13072,7 +13116,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13105,7 +13149,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13119,7 +13163,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13909,7 +13953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13947,7 +13991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -14033,7 +14077,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14065,7 +14109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -14131,7 +14175,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14163,7 +14207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -14232,7 +14276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14265,7 +14309,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14279,7 +14323,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14882,7 +14926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14920,7 +14964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -15007,7 +15051,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15039,7 +15083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -15106,7 +15150,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15138,7 +15182,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -15217,7 +15261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15250,7 +15294,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15264,7 +15308,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15343,7 +15387,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16113,7 +16157,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16151,7 +16195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -16237,7 +16281,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16269,7 +16313,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -16335,7 +16379,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16367,7 +16411,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -16436,7 +16480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16469,7 +16513,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16483,7 +16527,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16565,7 +16609,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17064,7 +17108,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17102,7 +17146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -17189,7 +17233,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17221,7 +17265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -17288,7 +17332,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17320,7 +17364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -17389,7 +17433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17422,7 +17466,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17436,7 +17480,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18214,7 +18258,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18252,7 +18296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -18338,7 +18382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18370,7 +18414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -18436,7 +18480,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18468,7 +18512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -18537,7 +18581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18570,7 +18614,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18584,7 +18628,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19181,7 +19225,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19219,7 +19263,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -19306,7 +19350,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19338,7 +19382,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -19405,7 +19449,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19437,7 +19481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -19516,7 +19560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19549,7 +19593,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19563,7 +19607,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19642,7 +19686,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20346,7 +20390,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20384,7 +20428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311299488"/>
@@ -20470,7 +20514,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20502,7 +20546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311298240"/>
@@ -20569,7 +20613,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20601,7 +20645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2114749680"/>
@@ -20619,6 +20663,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2114750512"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -20669,7 +20714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20702,7 +20747,7 @@
           <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -30762,88 +30807,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1CDDB43-DF40-432C-B971-0BB852589BF8}" name="表1_3" displayName="表1_3" ref="B2:N9" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1CDDB43-DF40-432C-B971-0BB852589BF8}" name="表1_3" displayName="表1_3" ref="B2:N9" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64">
   <autoFilter ref="B2:N9" xr:uid="{7323D66F-147B-490E-A6DA-CCB8BC63CF5B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AF8E7425-7192-4FA8-BC2B-F86F85C2143B}" name="#Samples" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{457042FE-5617-46ED-8B1E-D45C2583B3B3}" name="FAIL" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{F76C6FD6-1419-430E-AD62-91F74E7276C8}" name="Error %" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{477F3882-90B3-423C-BE29-F570A754C82F}" name="Average" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{F880464D-E17C-4A86-BFD6-4713096DEACD}" name="Min" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{8FBC5C0E-1C37-4940-BA1B-4774D45A2957}" name="Max" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{61A846B1-5ABB-4385-9523-A0220E290530}" name="Median" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{0439A732-5B85-49FF-BEE3-A5D950FC2598}" name="90th pct" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{0FE8348D-7365-4C2B-89CC-6F4752A290B0}" name="95th pct" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{56975A94-97CD-431E-B7D5-DB2015826437}" name="99th pct" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{72CAED9A-5411-404A-AAC2-64645E1EA67E}" name="Transactions/s" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{A398557A-4B02-4B75-A097-B52ED12B88F7}" name="Received" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{FDB87C0E-18AF-4098-861E-26B361B24957}" name="Sent" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{AF8E7425-7192-4FA8-BC2B-F86F85C2143B}" name="#Samples" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{457042FE-5617-46ED-8B1E-D45C2583B3B3}" name="FAIL" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{F76C6FD6-1419-430E-AD62-91F74E7276C8}" name="Error %" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{477F3882-90B3-423C-BE29-F570A754C82F}" name="Average" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{F880464D-E17C-4A86-BFD6-4713096DEACD}" name="Min" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{8FBC5C0E-1C37-4940-BA1B-4774D45A2957}" name="Max" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{61A846B1-5ABB-4385-9523-A0220E290530}" name="Median" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{0439A732-5B85-49FF-BEE3-A5D950FC2598}" name="90th pct" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{0FE8348D-7365-4C2B-89CC-6F4752A290B0}" name="95th pct" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{56975A94-97CD-431E-B7D5-DB2015826437}" name="99th pct" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{72CAED9A-5411-404A-AAC2-64645E1EA67E}" name="Transactions/s" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{A398557A-4B02-4B75-A097-B52ED12B88F7}" name="Received" dataDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{FDB87C0E-18AF-4098-861E-26B361B24957}" name="Sent" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7F32953-B535-4700-8458-298504C6CD91}" name="表1_36" displayName="表1_36" ref="B2:N9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7F32953-B535-4700-8458-298504C6CD91}" name="表1_36" displayName="表1_36" ref="B2:N9" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
   <autoFilter ref="B2:N9" xr:uid="{7323D66F-147B-490E-A6DA-CCB8BC63CF5B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0B2AA330-A37B-4FB0-8625-0AC0D0FD61E8}" name="#Samples" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{620CE93B-5EF8-46C9-8386-B7920D851A72}" name="FAIL" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A2DE111B-CB9B-474A-AB3D-78741A99AF96}" name="Error %" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{398A5053-3EFD-4189-9A1B-67271B4AE5F8}" name="Average" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{F004BB84-2ABB-41AD-85A6-194BFE2C1A0C}" name="Min" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{15DF5C9C-0F5F-4F0D-A81B-9D11C50945BA}" name="Max" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{03671859-9219-46AC-A468-DF5ADA3C8816}" name="Median" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{45B3D5CF-B0EC-480A-92BB-0B86CC8AC5A6}" name="90th pct" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8CF57BC1-8C1B-4713-B015-AF8CF9F83A04}" name="95th pct" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{7E794013-44D7-48DB-A485-5556E9943753}" name="99th pct" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{0ECCD8ED-E3D6-4FE0-8B0E-AE7C53A4760A}" name="Transactions/s" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3854984D-90A2-4191-A882-22F5A94D3E9F}" name="Received" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{53326D2D-FB6D-4B4E-B902-943F80C6CCF5}" name="Sent" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0B2AA330-A37B-4FB0-8625-0AC0D0FD61E8}" name="#Samples" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{620CE93B-5EF8-46C9-8386-B7920D851A72}" name="FAIL" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{A2DE111B-CB9B-474A-AB3D-78741A99AF96}" name="Error %" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{398A5053-3EFD-4189-9A1B-67271B4AE5F8}" name="Average" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{F004BB84-2ABB-41AD-85A6-194BFE2C1A0C}" name="Min" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{15DF5C9C-0F5F-4F0D-A81B-9D11C50945BA}" name="Max" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{03671859-9219-46AC-A468-DF5ADA3C8816}" name="Median" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{45B3D5CF-B0EC-480A-92BB-0B86CC8AC5A6}" name="90th pct" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{8CF57BC1-8C1B-4713-B015-AF8CF9F83A04}" name="95th pct" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{7E794013-44D7-48DB-A485-5556E9943753}" name="99th pct" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{0ECCD8ED-E3D6-4FE0-8B0E-AE7C53A4760A}" name="Transactions/s" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{3854984D-90A2-4191-A882-22F5A94D3E9F}" name="Received" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{53326D2D-FB6D-4B4E-B902-943F80C6CCF5}" name="Sent" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7323D66F-147B-490E-A6DA-CCB8BC63CF5B}" name="表1" displayName="表1" ref="B2:N9" totalsRowShown="0" headerRowDxfId="51" dataDxfId="52" headerRowBorderDxfId="66" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7323D66F-147B-490E-A6DA-CCB8BC63CF5B}" name="表1" displayName="表1" ref="B2:N9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
   <autoFilter ref="B2:N9" xr:uid="{7323D66F-147B-490E-A6DA-CCB8BC63CF5B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A75A9F61-101A-4009-ACC0-7DE0F1753C83}" name="#Samples" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{D92C94C7-6BC5-4B5F-85C4-55CBF02DE0BE}" name="FAIL" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{A83AA631-152F-40CA-A1D1-7B10A9192D1A}" name="Error %" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{DFC36CF9-2AE6-41A7-B5CB-35DC294B696C}" name="Average" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{14682E6F-081D-4897-9E42-2D1A0C22C768}" name="Min" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{F6B056EC-E1B3-484E-B29D-05615288ADD5}" name="Max" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{13CF4E08-C9BC-41A4-B8AF-E40EAFA6D5FC}" name="Median" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{187212FF-0FCA-46FF-8C76-5DF6C3B7B847}" name="90th pct" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{5D7052F5-54C7-4814-B9F8-99D08E4769E9}" name="95th pct" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{610FE0E4-414E-4099-8CFB-8A56113323D4}" name="99th pct" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{CDD6F882-7B2C-44CE-812D-D841B6223619}" name="Transactions/s" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{DC55504D-7DBC-45F8-9998-7CAE7045712B}" name="Received" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{696B516C-3659-453F-A4DF-3A2D3EC638F7}" name="Sent" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{A75A9F61-101A-4009-ACC0-7DE0F1753C83}" name="#Samples" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{D92C94C7-6BC5-4B5F-85C4-55CBF02DE0BE}" name="FAIL" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A83AA631-152F-40CA-A1D1-7B10A9192D1A}" name="Error %" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{DFC36CF9-2AE6-41A7-B5CB-35DC294B696C}" name="Average" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{14682E6F-081D-4897-9E42-2D1A0C22C768}" name="Min" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{F6B056EC-E1B3-484E-B29D-05615288ADD5}" name="Max" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{13CF4E08-C9BC-41A4-B8AF-E40EAFA6D5FC}" name="Median" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{187212FF-0FCA-46FF-8C76-5DF6C3B7B847}" name="90th pct" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{5D7052F5-54C7-4814-B9F8-99D08E4769E9}" name="95th pct" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{610FE0E4-414E-4099-8CFB-8A56113323D4}" name="99th pct" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{CDD6F882-7B2C-44CE-812D-D841B6223619}" name="Transactions/s" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{DC55504D-7DBC-45F8-9998-7CAE7045712B}" name="Received" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{696B516C-3659-453F-A4DF-3A2D3EC638F7}" name="Sent" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DAD3C89-F54A-48C5-AA1B-78C09CA4E66C}" name="表1_5" displayName="表1_5" ref="B2:N10" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DAD3C89-F54A-48C5-AA1B-78C09CA4E66C}" name="表1_5" displayName="表1_5" ref="B2:N10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B2:N10" xr:uid="{7323D66F-147B-490E-A6DA-CCB8BC63CF5B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0E9EFAE6-9754-4EFC-8072-4D658166D5E8}" name="#Samples" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{48749E28-40DA-4BB2-ACB8-BFAF8449EBFA}" name="FAIL" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{AAA42B3D-5F34-4EA1-ACBA-A7B7156AE3F7}" name="Error %" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{3E1A32C9-5FFF-47F0-8349-D3BDFC3FF0B3}" name="Average" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{F3EBF03E-BAB9-4CFB-B255-1D5C364750ED}" name="Min" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{9C7CCE0D-F7F3-41B3-A7DA-D97C6B57509E}" name="Max" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{B5D5C988-D3DA-4AC2-A7CA-A902E1E10E80}" name="Median" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{E297986E-3FAE-4126-BB0F-40141DF07ACF}" name="90th pct" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{D01DDC42-BB70-4A80-8494-6D91CD4C5195}" name="95th pct" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{A1A237FD-5B50-491C-AA47-61CAC07FE779}" name="99th pct" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{FEB35F5D-9818-4D6D-B1D2-553721E6C291}" name="Transactions/s" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{3E1A1850-BCEB-4B65-865F-83E4CB50ED42}" name="Received" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{8AD67C5A-283F-4D50-B48C-7801A0744EFD}" name="Sent" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{0E9EFAE6-9754-4EFC-8072-4D658166D5E8}" name="#Samples" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{48749E28-40DA-4BB2-ACB8-BFAF8449EBFA}" name="FAIL" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AAA42B3D-5F34-4EA1-ACBA-A7B7156AE3F7}" name="Error %" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3E1A32C9-5FFF-47F0-8349-D3BDFC3FF0B3}" name="Average" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{F3EBF03E-BAB9-4CFB-B255-1D5C364750ED}" name="Min" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{9C7CCE0D-F7F3-41B3-A7DA-D97C6B57509E}" name="Max" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B5D5C988-D3DA-4AC2-A7CA-A902E1E10E80}" name="Median" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E297986E-3FAE-4126-BB0F-40141DF07ACF}" name="90th pct" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D01DDC42-BB70-4A80-8494-6D91CD4C5195}" name="95th pct" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{A1A237FD-5B50-491C-AA47-61CAC07FE779}" name="99th pct" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{FEB35F5D-9818-4D6D-B1D2-553721E6C291}" name="Transactions/s" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3E1A1850-BCEB-4B65-865F-83E4CB50ED42}" name="Received" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{8AD67C5A-283F-4D50-B48C-7801A0744EFD}" name="Sent" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35145,42 +35190,42 @@
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="9.36328125"/>
-    <col min="12" max="12" width="14.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125"/>
+    <col min="5" max="5" width="9.33203125"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="29"/>
+      <c r="N1" s="96"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -35224,7 +35269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
@@ -35304,7 +35349,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="O4" t="s">
         <v>21</v>
       </c>
@@ -35333,7 +35378,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="O5" t="s">
         <v>22</v>
       </c>
@@ -35362,7 +35407,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="O6" t="s">
         <v>23</v>
       </c>
@@ -35388,7 +35433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="O7" t="s">
         <v>24</v>
       </c>
@@ -35402,7 +35447,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="24"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="O8" t="s">
         <v>25</v>
       </c>
@@ -35444,62 +35489,62 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="95.36328125" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="95.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="86" t="s">
+    <row r="2" spans="4:5">
+      <c r="D2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="87" t="s">
+    <row r="3" spans="4:5">
+      <c r="D3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="87" t="s">
+    <row r="4" spans="4:5">
+      <c r="D4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="87" t="s">
+    <row r="5" spans="4:5">
+      <c r="D5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="82" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="87" t="s">
+    <row r="6" spans="4:5">
+      <c r="D6" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="87" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" ht="16" thickBot="1"/>
+    <row r="18" spans="4:5" ht="16" thickBot="1">
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
@@ -35507,121 +35552,121 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="34" t="s">
+    <row r="19" spans="4:5" ht="32" thickTop="1" thickBot="1">
+      <c r="D19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="30" t="s">
+    <row r="20" spans="4:5" ht="31" thickBot="1">
+      <c r="D20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="34" t="s">
+    <row r="21" spans="4:5" ht="46" thickBot="1">
+      <c r="D21" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="30" t="s">
+    <row r="22" spans="4:5" ht="46" thickBot="1">
+      <c r="D22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="34" t="s">
+    <row r="23" spans="4:5" ht="31" thickBot="1">
+      <c r="D23" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+    <row r="24" spans="4:5">
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
-    <row r="30" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="4:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="90" t="s">
+    <row r="30" spans="4:5" ht="16" thickBot="1"/>
+    <row r="31" spans="4:5" ht="24" customHeight="1" thickBot="1">
+      <c r="D31" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="86" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="67" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="92" t="s">
+    <row r="32" spans="4:5" ht="74" thickTop="1" thickBot="1">
+      <c r="D32" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="E32" s="83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="83" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="93" t="s">
+    <row r="33" spans="4:5" ht="73" thickBot="1">
+      <c r="D33" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="83" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="92" t="s">
+    <row r="34" spans="4:5" ht="91" thickBot="1">
+      <c r="D34" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="88" t="s">
+      <c r="E34" s="83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="83" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="93" t="s">
+    <row r="35" spans="4:5" ht="91" thickBot="1">
+      <c r="D35" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="84" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="D36" s="92" t="s">
+    <row r="36" spans="4:5" ht="72">
+      <c r="D36" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="88" t="s">
+      <c r="E36" s="83" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="4:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="94" t="s">
+    <row r="39" spans="4:5" ht="16" thickBot="1"/>
+    <row r="40" spans="4:5" ht="17" thickBot="1">
+      <c r="D40" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="95" t="s">
+      <c r="E40" s="90" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="4:5" ht="57" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="96" t="s">
+    <row r="41" spans="4:5" ht="66" thickTop="1" thickBot="1">
+      <c r="D41" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="97" t="s">
+      <c r="E41" s="92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="4:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="D42" s="98" t="s">
+    <row r="42" spans="4:5" ht="112">
+      <c r="D42" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="99" t="s">
+      <c r="E42" s="94" t="s">
         <v>64</v>
       </c>
     </row>
@@ -35633,469 +35678,609 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C08A8-EE64-44E2-80C7-8A44FAD33A75}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="99"/>
+    <col min="30" max="30" width="16.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.83203125" customWidth="1"/>
+    <col min="35" max="35" width="14.1640625" customWidth="1"/>
+    <col min="36" max="36" width="14.5" customWidth="1"/>
+    <col min="37" max="37" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="40" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="R1" s="53" t="s">
+      <c r="N1" s="96"/>
+      <c r="R1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="43" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="96"/>
     </row>
-    <row r="2" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="33">
         <v>1000</v>
       </c>
-      <c r="S2" s="65">
+      <c r="S2" s="62">
         <v>118</v>
       </c>
-      <c r="T2" s="35">
+      <c r="T2" s="33">
         <v>166.95</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="33">
         <v>134</v>
       </c>
-      <c r="V2" s="65">
+      <c r="V2" s="62">
         <v>89.12</v>
       </c>
-      <c r="W2" s="35">
+      <c r="W2" s="33">
         <v>97.48</v>
       </c>
-      <c r="X2" s="35">
+      <c r="X2" s="33">
         <v>97.28</v>
       </c>
+      <c r="AD2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="59">
         <v>1000</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="59">
         <v>0</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="60">
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="59">
         <v>95.63</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="59">
         <v>75</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="59">
         <v>507</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="59">
         <v>89</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="59">
         <v>105</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="59">
         <v>118</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="59">
         <v>230.79</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="59">
         <v>89.12</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="59">
         <v>105.07</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="61">
         <v>93648.19</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="33">
         <v>2000</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="63">
         <v>102.95</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="33">
         <v>161.9</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="33">
         <v>131</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="63">
         <v>192.7</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="33">
         <v>194.19</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="33">
         <v>194.76</v>
       </c>
+      <c r="AD3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="33">
+        <v>1000</v>
+      </c>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="33">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="AI3" s="33">
+        <v>96.3</v>
+      </c>
+      <c r="AJ3" s="33">
+        <v>134.52000000000001</v>
+      </c>
+      <c r="AK3" s="35">
+        <v>101196.03</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:37" ht="17" thickBot="1">
+      <c r="A4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>2000</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>85.13</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>70</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>914</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="29">
         <v>80</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="29">
         <v>92</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="29">
         <v>102.95</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="29">
         <v>168</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="29">
         <v>192.7</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="29">
         <v>227.6</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <v>212125.82</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="29">
         <v>4000</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="64">
         <v>141.94999999999999</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="29">
         <v>173</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="33">
         <v>133</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="64">
         <v>358.1</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="29">
         <v>384.14</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4" s="33">
         <v>375.41</v>
       </c>
+      <c r="AD4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="33">
+        <v>2000</v>
+      </c>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="33">
+        <v>119.57</v>
+      </c>
+      <c r="AI4" s="33">
+        <v>195.24</v>
+      </c>
+      <c r="AJ4" s="33">
+        <v>273.12</v>
+      </c>
+      <c r="AK4" s="35">
+        <v>214919.98</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:37" ht="17" thickBot="1">
+      <c r="A5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>4000</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>0</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <v>0</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>97.77</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>72</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>4292</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="33">
         <v>84</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>104</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="33">
         <v>141.94999999999999</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="33">
         <v>318.94</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="33">
         <v>358.1</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="33">
         <v>423.36</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <v>430018.7</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="29">
         <v>6000</v>
       </c>
-      <c r="S5" s="66">
+      <c r="S5" s="63">
         <v>763</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="29">
         <v>97</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="29">
         <v>136</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V5" s="63">
         <v>520.42999999999995</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="29">
         <v>555.91999999999996</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="29">
         <v>578.30999999999995</v>
       </c>
+      <c r="AD5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>3000</v>
+      </c>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="31"/>
     </row>
-    <row r="6" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:37" ht="17" thickBot="1">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <v>6000</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <v>222.99</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <v>73</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>2960</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="29">
         <v>111</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="29">
         <v>486.9</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="29">
         <v>763</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="29">
         <v>1360.99</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="29">
         <v>520.42999999999995</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="29">
         <v>615.45000000000005</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="31">
         <v>676985.32</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="33">
         <v>8000</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="64">
         <v>6180.75</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="33">
         <v>103</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="33">
         <v>142</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="64">
         <v>450.7</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="33">
         <v>750.33</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="33">
         <v>749.84</v>
       </c>
+      <c r="AD6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>4000</v>
+      </c>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="31"/>
     </row>
-    <row r="7" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:37" ht="17" thickBot="1">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>8000</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>0</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>0</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>1661.43</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>71</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>9433</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="33">
         <v>990</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="33">
         <v>4248.6000000000004</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <v>6180.75</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>8291.92</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="33">
         <v>450.7</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="33">
         <v>533.07000000000005</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>631358.80000000005</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="AD7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="33">
+        <v>5000</v>
+      </c>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="35"/>
     </row>
-    <row r="8" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="37"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
+    <row r="8" spans="1:37" ht="17" thickBot="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="AE8" s="100">
+        <v>6000</v>
+      </c>
+      <c r="AG8" s="68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="17" thickBot="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
@@ -36108,147 +36293,172 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="18"/>
+      <c r="AE9" s="100">
+        <v>7000</v>
+      </c>
+      <c r="AG9" s="68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R11" s="53" t="s">
+    <row r="10" spans="1:37" ht="17" thickBot="1">
+      <c r="AE10" s="100">
+        <v>8000</v>
+      </c>
+      <c r="AG10" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="17" thickBot="1">
+      <c r="R11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="54" t="s">
+      <c r="U11" s="43" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="54"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="AE11" s="100">
+        <v>9000</v>
+      </c>
+      <c r="AG11" s="68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R12" s="35">
+    <row r="12" spans="1:37" ht="18" thickTop="1" thickBot="1">
+      <c r="R12" s="33">
         <v>1000</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="65">
         <v>93648.19</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="33">
         <v>102479.5</v>
       </c>
       <c r="U12">
         <v>102300.20000000001</v>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="34">
         <v>0</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
+      <c r="AE12" s="100">
+        <v>10000</v>
+      </c>
+      <c r="AG12" s="68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R13" s="35">
+    <row r="13" spans="1:37" ht="17" thickBot="1">
+      <c r="R13" s="33">
         <v>2000</v>
       </c>
-      <c r="S13" s="69">
+      <c r="S13" s="66">
         <v>212125.82</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="33">
         <v>213853.06</v>
       </c>
       <c r="U13">
         <v>214558.06999999998</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="34">
         <v>0</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="35">
+    <row r="14" spans="1:37" ht="17" thickBot="1">
+      <c r="R14" s="33">
         <v>4000</v>
       </c>
-      <c r="S14" s="70">
+      <c r="S14" s="67">
         <v>430018.7</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="29">
         <v>461437.5</v>
       </c>
       <c r="U14">
         <v>451112</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="34">
         <v>0</v>
       </c>
       <c r="W14" s="13"/>
-      <c r="X14" s="35"/>
+      <c r="X14" s="33"/>
     </row>
-    <row r="15" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R15" s="31">
+    <row r="15" spans="1:37" ht="17" thickBot="1">
+      <c r="R15" s="29">
         <v>6000</v>
       </c>
-      <c r="S15" s="69">
+      <c r="S15" s="66">
         <v>676985.32</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="29">
         <v>723378.54</v>
       </c>
       <c r="U15">
         <v>752761.43</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="30">
         <v>0</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="17" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="R16" s="35">
+      <c r="N16" s="96"/>
+      <c r="R16" s="33">
         <v>8000</v>
       </c>
-      <c r="S16" s="70">
+      <c r="S16" s="67">
         <v>631358.80000000005</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="33">
         <v>1051388.1599999999</v>
       </c>
       <c r="U16">
         <v>1051007.71</v>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="34">
         <v>0</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="35"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="33"/>
     </row>
-    <row r="17" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="18" thickTop="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -36291,284 +36501,445 @@
       <c r="N17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="35"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="33"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="AD17" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:37" ht="41" thickTop="1" thickBot="1">
+      <c r="A18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="33">
         <v>1000</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>0</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>0</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>105.81</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>47</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="33">
         <v>550</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="33">
         <v>94.5</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>131</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>166.95</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>348.9</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="33">
         <v>97.48</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="33">
         <v>102479.5</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="35">
         <v>25.09</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="35"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="33"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="AD18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="96"/>
     </row>
-    <row r="19" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:37" ht="18" thickTop="1" thickBot="1">
+      <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>2000</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>0</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>0</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>95.43</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>25</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>684</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>96</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <v>126</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>161.9</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>347.92</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="33">
         <v>194.19</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="33">
         <v>213853.06</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="35">
         <v>50.09</v>
       </c>
+      <c r="AD19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:37" ht="18" thickTop="1" thickBot="1">
+      <c r="A20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="29">
         <v>4000</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>0</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="30">
         <v>0</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="29">
         <v>96.65</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="29">
         <v>18</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="29">
         <v>5873</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="29">
         <v>87</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="29">
         <v>155</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="29">
         <v>173</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="29">
         <v>332.96</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="29">
         <v>384.14</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="29">
         <v>461437.5</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="31">
         <v>99.18</v>
       </c>
+      <c r="AD20" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE20" s="33">
+        <v>1000</v>
+      </c>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="33">
+        <v>47.51</v>
+      </c>
+      <c r="AI20" s="33">
+        <v>98.26</v>
+      </c>
+      <c r="AJ20" s="33">
+        <v>103320.01</v>
+      </c>
+      <c r="AK20" s="35">
+        <v>24.62</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:37" ht="17" thickBot="1">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <v>6000</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>0</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="30">
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="29">
         <v>49.86</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>18</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="29">
         <v>1403</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <v>37</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="29">
         <v>68</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="29">
         <v>97</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="29">
         <v>249.98</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <v>555.91999999999996</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="29">
         <v>723378.54</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="31">
         <v>143.59</v>
       </c>
+      <c r="AD21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE21" s="33">
+        <v>2000</v>
+      </c>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="35"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:37" ht="17" thickBot="1">
+      <c r="A22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>8000</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
         <v>0</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>0</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <v>50.38</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="33">
         <v>17</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="33">
         <v>1074</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="33">
         <v>37</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="33">
         <v>71</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>103</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>271.97000000000003</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="33">
         <v>750.33</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="33">
         <v>1051388.1599999999</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="35">
         <v>193.83</v>
       </c>
+      <c r="AD22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE22" s="29">
+        <v>3000</v>
+      </c>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="31"/>
     </row>
-    <row r="23" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="37"/>
+    <row r="23" spans="1:37" ht="17" thickBot="1">
+      <c r="AD23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE23" s="29">
+        <v>4000</v>
+      </c>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="31"/>
     </row>
-    <row r="28" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="17" thickBot="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="35"/>
+      <c r="AD24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE24" s="33">
+        <v>5000</v>
+      </c>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="35"/>
+    </row>
+    <row r="25" spans="1:37" ht="17" thickBot="1">
+      <c r="AE25" s="100">
+        <v>6000</v>
+      </c>
+      <c r="AG25" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="17" thickBot="1">
+      <c r="AE26" s="100">
+        <v>7000</v>
+      </c>
+      <c r="AG26" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="17" thickBot="1">
+      <c r="AE27" s="100">
+        <v>8000</v>
+      </c>
+      <c r="AG27" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="17" thickBot="1">
+      <c r="AE28" s="100">
+        <v>9000</v>
+      </c>
+      <c r="AG28" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="17" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="96"/>
+      <c r="AE29" s="100">
+        <v>10000</v>
+      </c>
+      <c r="AG29" s="68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="18" thickTop="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -36612,47 +36983,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:37" ht="18" thickTop="1" thickBot="1">
+      <c r="A31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>1000</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>0</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>72.97</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="33">
         <v>23</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="33">
         <v>324</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="33">
         <v>52</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="33">
         <v>126</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>134</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>199.93</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="33">
         <v>97.28</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="33">
         <v>71640.850000000006</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="35">
         <v>30659.35</v>
       </c>
       <c r="O31">
@@ -36660,47 +37031,47 @@
         <v>102300.20000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:37" ht="17" thickBot="1">
+      <c r="A32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="33">
         <v>2000</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>0</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="34">
         <v>0</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>70.349999999999994</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="33">
         <v>19</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="33">
         <v>664</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="33">
         <v>48</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="33">
         <v>126</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>131</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <v>217.94</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="33">
         <v>194.76</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="33">
         <v>150219.54999999999</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="35">
         <v>64338.52</v>
       </c>
       <c r="O32">
@@ -36708,47 +37079,47 @@
         <v>214558.06999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:37" ht="17" thickBot="1">
+      <c r="A33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>4000</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>0</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>0</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>71.3</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="33">
         <v>15</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>735</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>49</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="33">
         <v>128</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>133</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>175.99</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="33">
         <v>375.41</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="33">
         <v>316119.64</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="35">
         <v>134992.35999999999</v>
       </c>
       <c r="O33">
@@ -36756,47 +37127,47 @@
         <v>451112</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:37" ht="17" thickBot="1">
+      <c r="A34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="29">
         <v>6000</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="29">
         <v>0</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="30">
         <v>0</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="29">
         <v>70.739999999999995</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>16</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="29">
         <v>1136</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="29">
         <v>45</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="29">
         <v>131</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="29">
         <v>136</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="29">
         <v>204.99</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="29">
         <v>578.30999999999995</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="29">
         <v>527263.79</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="31">
         <v>225497.64</v>
       </c>
       <c r="O34">
@@ -36804,96 +37175,275 @@
         <v>752761.43</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:37" ht="17" thickBot="1">
+      <c r="A35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>8000</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>0</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>0</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>73.17</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="33">
         <v>15</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>808</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="33">
         <v>44</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="33">
         <v>136</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>142</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>259.94</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="33">
         <v>749.84</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="33">
         <v>736250.91</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="35">
         <v>314756.8</v>
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
         <v>1051007.71</v>
       </c>
+      <c r="AD35" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
+    <row r="36" spans="1:37" ht="40" thickBot="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="35"/>
       <c r="O36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AD36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="95"/>
+      <c r="AG36" s="95"/>
+      <c r="AH36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ36" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK36" s="96"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="37"/>
+    <row r="37" spans="1:37" ht="18" thickTop="1" thickBot="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="35"/>
       <c r="O37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AD37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK37" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="18" thickTop="1" thickBot="1">
+      <c r="AD38" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE38" s="33">
+        <v>1000</v>
+      </c>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="33">
+        <v>68.55</v>
+      </c>
+      <c r="AI38" s="33">
+        <v>98.92</v>
+      </c>
+      <c r="AJ38" s="33">
+        <v>72876.59</v>
+      </c>
+      <c r="AK38" s="35">
+        <v>31177.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="17" thickBot="1">
+      <c r="AD39" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE39" s="33">
+        <v>2000</v>
+      </c>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="35"/>
+    </row>
+    <row r="40" spans="1:37" ht="17" thickBot="1">
+      <c r="AD40" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE40" s="29">
+        <v>3000</v>
+      </c>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="31"/>
+    </row>
+    <row r="41" spans="1:37" ht="17" thickBot="1">
+      <c r="AD41" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE41" s="29">
+        <v>4000</v>
+      </c>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="31"/>
+    </row>
+    <row r="42" spans="1:37" ht="17" thickBot="1">
+      <c r="AD42" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE42" s="33">
+        <v>5000</v>
+      </c>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="68">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="35"/>
+    </row>
+    <row r="43" spans="1:37" ht="17" thickBot="1">
+      <c r="AE43" s="100">
+        <v>6000</v>
+      </c>
+      <c r="AG43" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="17" thickBot="1">
+      <c r="AE44" s="100">
+        <v>7000</v>
+      </c>
+      <c r="AG44" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="17" thickBot="1">
+      <c r="AE45" s="100">
+        <v>8000</v>
+      </c>
+      <c r="AG45" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="17" thickBot="1">
+      <c r="AE46" s="100">
+        <v>9000</v>
+      </c>
+      <c r="AG46" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="AE47" s="100">
+        <v>10000</v>
+      </c>
+      <c r="AG47" s="68">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:K29"/>
     <mergeCell ref="M29:N29"/>
@@ -36916,461 +37466,469 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE77259-EBAA-4895-9361-38834AAC630F}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="R1" s="53" t="s">
+      <c r="N1" s="96"/>
+      <c r="R1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="43" t="s">
         <v>28</v>
       </c>
+      <c r="AC1" s="99"/>
     </row>
-    <row r="2" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="66">
+      <c r="R2" s="63">
         <v>1000</v>
       </c>
-      <c r="S2" s="66">
+      <c r="S2" s="63">
         <v>282</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="29">
         <v>183.95</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="33">
         <v>259</v>
       </c>
-      <c r="V2" s="66">
+      <c r="V2" s="63">
         <v>96.26</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="29">
         <v>95.8</v>
       </c>
-      <c r="X2" s="35">
+      <c r="X2" s="33">
         <v>98.39</v>
       </c>
+      <c r="AC2" s="99"/>
     </row>
-    <row r="3" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:29" ht="18" thickTop="1" thickBot="1">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>1000</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>0</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>256.2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <v>231</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>1012</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <v>248</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="29">
         <v>266.89999999999998</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="29">
         <v>282</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="29">
         <v>454.96</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="29">
         <v>96.26</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="29">
         <v>113.96</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="31">
         <v>967449.07</v>
       </c>
-      <c r="R3" s="67">
+      <c r="R3" s="64">
         <v>2000</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="64">
         <v>23671.7</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="33">
         <v>226.8</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="33">
         <v>270</v>
       </c>
-      <c r="V3" s="67">
+      <c r="V3" s="64">
         <v>57.46</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="33">
         <v>180.49</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="33">
         <v>194.16</v>
       </c>
+      <c r="AC3" s="99"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:29" ht="17" thickBot="1">
+      <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>2000</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>0</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>14990.4</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>216</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="33">
         <v>27509</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="33">
         <v>16056</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="33">
         <v>20858.900000000001</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="33">
         <v>23671.7</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <v>26047.97</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="33">
         <v>57.46</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="33">
         <v>68.14</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <v>580357.31000000006</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="64">
         <v>3000</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="64">
         <v>57467.95</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="33">
         <v>311</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="33">
         <v>326</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="64">
         <v>43.34</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="33">
         <v>278.68</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4" s="33">
         <v>274.10000000000002</v>
       </c>
+      <c r="AC4" s="99"/>
     </row>
-    <row r="5" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:29" ht="17" thickBot="1">
+      <c r="A5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>3000</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>0</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <v>0</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>40278.54</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>402</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>66398</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="33">
         <v>37002.5</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>56442.9</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="33">
         <v>57467.95</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="33">
         <v>59038.94</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="33">
         <v>43.34</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="33">
         <v>51.44</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <v>439963.12</v>
       </c>
-      <c r="R5" s="67">
+      <c r="R5" s="64">
         <v>4000</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="64">
         <v>112071</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="33">
         <v>668.95</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="33">
         <v>861.85</v>
       </c>
-      <c r="V5" s="67">
+      <c r="V5" s="64">
         <v>40</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="33">
         <v>338.32</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="33">
         <v>337.24</v>
       </c>
+      <c r="AC5" s="99"/>
     </row>
-    <row r="6" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:29" ht="17" thickBot="1">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>4000</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>0</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>0</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>647.87</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>279</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>5327</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>612</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>847</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>1001</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>1099.96</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="33">
         <v>381.75</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="33">
         <v>453.16</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>3894189.41</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="62">
         <v>5000</v>
       </c>
-      <c r="S6" s="65">
+      <c r="S6" s="62">
         <v>225442</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="65">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="62">
         <v>18.100000000000001</v>
       </c>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="AC6" s="99"/>
     </row>
-    <row r="7" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:29" ht="17" thickBot="1">
+      <c r="A7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="59">
         <v>5000</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="59">
         <v>4915</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="60">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="59">
         <v>147292.47</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="59">
         <v>1264</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="59">
         <v>270887</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="59">
         <v>141690</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="59">
         <v>166984.6</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="59">
         <v>225442</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="59">
         <v>267309.81</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="59">
         <v>18.100000000000001</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="59">
         <v>59.42</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="61">
         <v>3175.29</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="AC7" s="99"/>
     </row>
-    <row r="8" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="37"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
+    <row r="8" spans="1:29" ht="17" thickBot="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="AC8" s="99"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16">
       <c r="A9" s="12"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
@@ -37383,142 +37941,151 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="18"/>
+      <c r="AC9" s="99"/>
     </row>
-    <row r="10" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R11" s="53" t="s">
+    <row r="10" spans="1:29" ht="17" thickBot="1">
+      <c r="AC10" s="99"/>
+    </row>
+    <row r="11" spans="1:29" ht="17" thickBot="1">
+      <c r="R11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="54" t="s">
+      <c r="U11" s="43" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="54"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="AC11" s="99"/>
     </row>
-    <row r="12" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R12" s="66">
+    <row r="12" spans="1:29" ht="18" thickTop="1" thickBot="1">
+      <c r="R12" s="63">
         <v>1000</v>
       </c>
-      <c r="S12" s="69">
+      <c r="S12" s="66">
         <v>967449.07</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="29">
         <v>962946.52</v>
       </c>
       <c r="U12">
         <v>988946.24</v>
       </c>
-      <c r="V12" s="71">
+      <c r="V12" s="68">
         <v>0</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
+      <c r="AC12" s="99"/>
     </row>
-    <row r="13" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R13" s="67">
+    <row r="13" spans="1:29" ht="17" thickBot="1">
+      <c r="R13" s="64">
         <v>2000</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="67">
         <v>580357.31000000006</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="33">
         <v>1823163.49</v>
       </c>
       <c r="U13">
         <v>1961295.37</v>
       </c>
-      <c r="V13" s="72">
+      <c r="V13" s="69">
         <v>0</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
+      <c r="AC13" s="99"/>
     </row>
-    <row r="14" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="67">
+    <row r="14" spans="1:29" ht="17" thickBot="1">
+      <c r="R14" s="64">
         <v>3000</v>
       </c>
-      <c r="S14" s="70">
+      <c r="S14" s="67">
         <v>439963.12</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="33">
         <v>2828956.21</v>
       </c>
       <c r="U14">
         <v>2782545.2600000002</v>
       </c>
-      <c r="V14" s="72">
+      <c r="V14" s="69">
         <v>0</v>
       </c>
       <c r="W14" s="13"/>
-      <c r="X14" s="35"/>
+      <c r="X14" s="33"/>
+      <c r="AC14" s="99"/>
     </row>
-    <row r="15" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R15" s="67">
+    <row r="15" spans="1:29" ht="17" thickBot="1">
+      <c r="R15" s="64">
         <v>4000</v>
       </c>
-      <c r="S15" s="70">
+      <c r="S15" s="67">
         <v>3894189.41</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="33">
         <v>3451319.67</v>
       </c>
       <c r="U15">
         <v>3440402.31</v>
       </c>
-      <c r="V15" s="72">
+      <c r="V15" s="69">
         <v>0</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="AC15" s="99"/>
     </row>
-    <row r="16" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="17" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="R16" s="65">
+      <c r="N16" s="96"/>
+      <c r="R16" s="62">
         <v>5000</v>
       </c>
-      <c r="S16" s="68">
+      <c r="S16" s="65">
         <v>3175.29</v>
       </c>
-      <c r="T16" s="35"/>
-      <c r="V16" s="73">
+      <c r="T16" s="33"/>
+      <c r="V16" s="70">
         <v>0.98299999999999998</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="35"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="33"/>
+      <c r="AC16" s="99"/>
     </row>
-    <row r="17" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="18" thickTop="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -37561,256 +38128,277 @@
       <c r="N17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="35"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="33"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="AC17" s="99"/>
     </row>
-    <row r="18" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:29" ht="18" thickTop="1" thickBot="1">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="29">
         <v>1000</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>0</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="30">
         <v>0</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="29">
         <v>111.95</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>66</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="29">
         <v>891</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="29">
         <v>95</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="29">
         <v>137</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="29">
         <v>183.95</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="29">
         <v>571.6</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <v>95.8</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="29">
         <v>962946.52</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="31">
         <v>24.75</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="35"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="33"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="AC18" s="99"/>
     </row>
-    <row r="19" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:29" ht="17" thickBot="1">
+      <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>2000</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>0</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>0</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>114.29</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>62</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>2985</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>82</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <v>146.9</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>226.8</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>700.76</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="33">
         <v>180.49</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="33">
         <v>1823163.49</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="35">
         <v>46.73</v>
       </c>
+      <c r="AC19" s="99"/>
     </row>
-    <row r="20" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:29" ht="17" thickBot="1">
+      <c r="A20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>3000</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>0</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>0</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>137.49</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>59</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>1865</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>105.5</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <v>186.9</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>311</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>752.96</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="33">
         <v>278.68</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="33">
         <v>2828956.21</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="35">
         <v>72.2</v>
       </c>
+      <c r="AC20" s="99"/>
     </row>
-    <row r="21" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:29" ht="17" thickBot="1">
+      <c r="A21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>4000</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>0</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>0</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>396.64</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>66</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>4232</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>383</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>575</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>668.95</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>1029.93</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="33">
         <v>338.32</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="33">
         <v>3451319.67</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="35">
         <v>87.68</v>
       </c>
+      <c r="AC21" s="99"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="37"/>
+    <row r="22" spans="1:29" ht="16">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="35"/>
+      <c r="AC22" s="99"/>
     </row>
-    <row r="23" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="37"/>
+    <row r="23" spans="1:29" ht="17" thickBot="1">
+      <c r="AC23" s="99"/>
     </row>
-    <row r="28" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="16">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="35"/>
+      <c r="AC24" s="99"/>
+    </row>
+    <row r="25" spans="1:29" ht="16">
+      <c r="AC25" s="99"/>
+    </row>
+    <row r="26" spans="1:29" ht="16">
+      <c r="AC26" s="99"/>
+    </row>
+    <row r="27" spans="1:29" ht="16">
+      <c r="AC27" s="99"/>
+    </row>
+    <row r="28" spans="1:29" ht="17" thickBot="1">
+      <c r="AC28" s="99"/>
+    </row>
+    <row r="29" spans="1:29" ht="17" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="96"/>
+      <c r="AC29" s="99"/>
     </row>
-    <row r="30" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="18" thickTop="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -37853,258 +38441,377 @@
       <c r="N30" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="AC30" s="99"/>
     </row>
-    <row r="31" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:29" ht="18" thickTop="1" thickBot="1">
+      <c r="A31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>1000</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>0</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>144.96</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="33">
         <v>68</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="33">
         <v>1396</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="33">
         <v>88</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="33">
         <v>250</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>259</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>473.72</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="33">
         <v>98.39</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="33">
         <v>692293.41</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="35">
         <v>296652.83</v>
       </c>
       <c r="O31">
         <f>M31+N31</f>
         <v>988946.24</v>
       </c>
+      <c r="AC31" s="99"/>
     </row>
-    <row r="32" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:29" ht="17" thickBot="1">
+      <c r="A32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="33">
         <v>2000</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>0</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="34">
         <v>0</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>147.15</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="33">
         <v>59</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="33">
         <v>1184</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="33">
         <v>85</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="33">
         <v>257</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>270</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <v>432.93</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="33">
         <v>194.16</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="33">
         <v>1372933.97</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="35">
         <v>588361.4</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32:O37" si="0">M32+N32</f>
         <v>1961295.37</v>
       </c>
+      <c r="AC32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:29" ht="17" thickBot="1">
+      <c r="A33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>3000</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>0</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>0</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>174.09</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="33">
         <v>64</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>1402</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>125</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="33">
         <v>294</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>326</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>644.89</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="33">
         <v>274.10000000000002</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="33">
         <v>1947951.08</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="35">
         <v>834594.18</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
         <v>2782545.2600000002</v>
       </c>
+      <c r="AC33" s="99"/>
     </row>
-    <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:29" ht="17" thickBot="1">
+      <c r="A34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="33">
         <v>4000</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="33">
         <v>0</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>0</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="33">
         <v>331.88</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="33">
         <v>59</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="33">
         <v>4739</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="33">
         <v>266</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="33">
         <v>717</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>861.85</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="33">
         <v>1147.95</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="33">
         <v>337.24</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="33">
         <v>2408584.87</v>
       </c>
-      <c r="N34" s="37">
+      <c r="N34" s="35">
         <v>1031817.44</v>
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
         <v>3440402.31</v>
       </c>
+      <c r="AC34" s="99"/>
     </row>
-    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="37"/>
+    <row r="35" spans="1:29" ht="17" thickBot="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="35"/>
       <c r="O35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AC35" s="99"/>
     </row>
-    <row r="36" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
+    <row r="36" spans="1:29" ht="17" thickBot="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="35"/>
       <c r="O36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AC36" s="99"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="37"/>
+    <row r="37" spans="1:29" ht="16">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="35"/>
       <c r="O37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AC37" s="99"/>
+    </row>
+    <row r="38" spans="1:29" ht="16">
+      <c r="AC38" s="99"/>
+    </row>
+    <row r="39" spans="1:29" ht="16">
+      <c r="AC39" s="99"/>
+    </row>
+    <row r="40" spans="1:29" ht="16">
+      <c r="AC40" s="99"/>
+    </row>
+    <row r="41" spans="1:29" ht="16">
+      <c r="AC41" s="99"/>
+    </row>
+    <row r="42" spans="1:29" ht="16">
+      <c r="AC42" s="99"/>
+    </row>
+    <row r="43" spans="1:29" ht="16">
+      <c r="AC43" s="99"/>
+    </row>
+    <row r="44" spans="1:29" ht="16">
+      <c r="AC44" s="99"/>
+    </row>
+    <row r="45" spans="1:29" ht="16">
+      <c r="AC45" s="99"/>
+    </row>
+    <row r="46" spans="1:29" ht="16">
+      <c r="AC46" s="99"/>
+    </row>
+    <row r="47" spans="1:29" ht="16">
+      <c r="AC47" s="99"/>
+    </row>
+    <row r="48" spans="1:29" ht="16">
+      <c r="AC48" s="99"/>
+    </row>
+    <row r="49" spans="29:29" ht="16">
+      <c r="AC49" s="99"/>
+    </row>
+    <row r="50" spans="29:29" ht="16">
+      <c r="AC50" s="99"/>
+    </row>
+    <row r="51" spans="29:29" ht="16">
+      <c r="AC51" s="99"/>
+    </row>
+    <row r="52" spans="29:29" ht="16">
+      <c r="AC52" s="99"/>
+    </row>
+    <row r="53" spans="29:29" ht="16">
+      <c r="AC53" s="99"/>
+    </row>
+    <row r="54" spans="29:29" ht="16">
+      <c r="AC54" s="99"/>
+    </row>
+    <row r="55" spans="29:29" ht="16">
+      <c r="AC55" s="99"/>
+    </row>
+    <row r="56" spans="29:29" ht="16">
+      <c r="AC56" s="99"/>
+    </row>
+    <row r="57" spans="29:29" ht="16">
+      <c r="AC57" s="99"/>
+    </row>
+    <row r="58" spans="29:29" ht="16">
+      <c r="AC58" s="99"/>
+    </row>
+    <row r="59" spans="29:29" ht="16">
+      <c r="AC59" s="99"/>
+    </row>
+    <row r="60" spans="29:29" ht="16">
+      <c r="AC60" s="99"/>
+    </row>
+    <row r="61" spans="29:29" ht="16">
+      <c r="AC61" s="99"/>
+    </row>
+    <row r="62" spans="29:29" ht="16">
+      <c r="AC62" s="99"/>
+    </row>
+    <row r="63" spans="29:29" ht="16">
+      <c r="AC63" s="99"/>
+    </row>
+    <row r="64" spans="29:29" ht="16">
+      <c r="AC64" s="99"/>
+    </row>
+    <row r="65" spans="29:29" ht="16">
+      <c r="AC65" s="99"/>
+    </row>
+    <row r="66" spans="29:29" ht="16">
+      <c r="AC66" s="99"/>
+    </row>
+    <row r="67" spans="29:29" ht="16">
+      <c r="AC67" s="99"/>
+    </row>
+    <row r="68" spans="29:29" ht="16">
+      <c r="AC68" s="99"/>
+    </row>
+    <row r="69" spans="29:29" ht="16">
+      <c r="AC69" s="99"/>
+    </row>
+    <row r="70" spans="29:29" ht="16">
+      <c r="AC70" s="99"/>
+    </row>
+    <row r="71" spans="29:29" ht="16">
+      <c r="AC71" s="99"/>
+    </row>
+    <row r="72" spans="29:29" ht="16">
+      <c r="AC72" s="99"/>
+    </row>
+    <row r="73" spans="29:29" ht="16">
+      <c r="AC73" s="99"/>
+    </row>
+    <row r="74" spans="29:29" ht="16">
+      <c r="AC74" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -38136,113 +38843,113 @@
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125"/>
-    <col min="8" max="10" width="9.36328125"/>
-    <col min="11" max="11" width="10.36328125"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.453125"/>
-    <col min="14" max="14" width="10.36328125"/>
-    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="8" max="10" width="9.33203125"/>
+    <col min="11" max="11" width="10.33203125"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5"/>
+    <col min="14" max="14" width="10.33203125"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="R1" s="53" t="s">
+      <c r="N1" s="96"/>
+      <c r="R1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="13">
         <v>100</v>
       </c>
-      <c r="S2" s="50">
+      <c r="S2" s="48">
         <v>5154.3</v>
       </c>
       <c r="T2" s="13">
@@ -38251,7 +38958,7 @@
       <c r="U2" s="13">
         <v>2063.1999999999998</v>
       </c>
-      <c r="V2" s="50">
+      <c r="V2" s="48">
         <v>7.06</v>
       </c>
       <c r="W2" s="13">
@@ -38261,11 +38968,11 @@
         <v>9.23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="36">
         <v>100</v>
       </c>
       <c r="C3" s="7">
@@ -38307,7 +39014,7 @@
       <c r="R3" s="13">
         <v>200</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="49">
         <v>27985.9</v>
       </c>
       <c r="T3" s="13">
@@ -38316,7 +39023,7 @@
       <c r="U3" s="13">
         <v>1899.4</v>
       </c>
-      <c r="V3" s="51">
+      <c r="V3" s="49">
         <v>5.6</v>
       </c>
       <c r="W3" s="13">
@@ -38326,11 +39033,11 @@
         <v>14.77</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="17" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>200</v>
       </c>
       <c r="C4" s="10">
@@ -38369,33 +39076,33 @@
       <c r="N4" s="17">
         <v>560284.76</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="33">
         <v>300</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="48">
         <v>40772.15</v>
       </c>
       <c r="T4" s="13">
         <v>1856.7</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="33">
         <v>1948.45</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4" s="48">
         <v>6.17</v>
       </c>
       <c r="W4" s="13">
         <v>26.3</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4" s="33">
         <v>22.54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <v>300</v>
       </c>
       <c r="C5" s="7">
@@ -38434,33 +39141,33 @@
       <c r="N5" s="16">
         <v>617305.44999999995</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="29">
         <v>500</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="50">
         <v>88094.3</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="29">
         <v>3991.35</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="29">
         <v>4150.75</v>
       </c>
-      <c r="V5" s="52">
+      <c r="V5" s="50">
         <v>5.17</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="29">
         <v>39.79</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="29">
         <v>35.11</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="17" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>500</v>
       </c>
       <c r="C6" s="13">
@@ -38499,33 +39206,33 @@
       <c r="N6" s="18">
         <v>516673.02</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="33">
         <v>1000</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="48">
         <v>166509.70000000001</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="29">
         <v>17004.849999999999</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="33">
         <v>18454.900000000001</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="48">
         <v>5.56</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="29">
         <v>38.340000000000003</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="33">
         <v>39.85</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="17" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <v>1000</v>
       </c>
       <c r="C7" s="7">
@@ -38564,33 +39271,33 @@
       <c r="N7" s="16">
         <v>556245.86</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="33">
         <v>2000</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="50">
         <v>326057</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="33">
         <v>39443.199999999997</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="33">
         <v>40681.699999999997</v>
       </c>
-      <c r="V7" s="52">
+      <c r="V7" s="50">
         <v>5.84</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="33">
         <v>43.94</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="33">
         <v>43.31</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="17" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>2000</v>
       </c>
       <c r="C8" s="13">
@@ -38629,33 +39336,33 @@
       <c r="N8" s="18">
         <v>584656.72</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="33">
         <v>3000</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="50">
         <v>443792.7</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="33">
         <v>90771.65</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="33">
         <v>91722.08</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="50">
         <v>6.43</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="33">
         <v>30.75</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="33">
         <v>30.96</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="16">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>3000</v>
       </c>
       <c r="C9" s="13">
@@ -38695,31 +39402,31 @@
         <v>522406.21</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R11" s="53" t="s">
+    <row r="10" spans="1:24" ht="16" thickBot="1"/>
+    <row r="11" spans="1:24" ht="16" thickBot="1">
+      <c r="R11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="54" t="s">
+      <c r="U11" s="43" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="54"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
     </row>
-    <row r="12" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="R12" s="13">
         <v>100</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="52">
         <v>706505.32</v>
       </c>
       <c r="T12" s="13">
@@ -38728,17 +39435,17 @@
       <c r="U12">
         <v>922996.29</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="55">
         <v>0</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="16" thickBot="1">
       <c r="R13" s="13">
         <v>200</v>
       </c>
-      <c r="S13" s="56">
+      <c r="S13" s="53">
         <v>560284.76</v>
       </c>
       <c r="T13" s="13">
@@ -38747,17 +39454,17 @@
       <c r="U13">
         <v>1477276.94</v>
       </c>
-      <c r="V13" s="59">
+      <c r="V13" s="56">
         <v>0</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="35">
+    <row r="14" spans="1:24" ht="16" thickBot="1">
+      <c r="R14" s="33">
         <v>300</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="52">
         <v>617305.44999999995</v>
       </c>
       <c r="T14" s="13">
@@ -38766,75 +39473,75 @@
       <c r="U14">
         <v>2253981</v>
       </c>
-      <c r="V14" s="58">
+      <c r="V14" s="55">
         <v>0</v>
       </c>
       <c r="W14" s="13"/>
-      <c r="X14" s="35"/>
+      <c r="X14" s="33"/>
     </row>
-    <row r="15" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R15" s="31">
+    <row r="15" spans="1:24" ht="16" thickBot="1">
+      <c r="R15" s="29">
         <v>500</v>
       </c>
-      <c r="S15" s="57">
+      <c r="S15" s="54">
         <v>516673.02</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="29">
         <v>3980351.63</v>
       </c>
       <c r="U15">
         <v>3512171.71</v>
       </c>
-      <c r="V15" s="60">
+      <c r="V15" s="57">
         <v>0</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="16" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="R16" s="35">
+      <c r="N16" s="96"/>
+      <c r="R16" s="33">
         <v>1000</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="52">
         <v>556245.86</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="29">
         <v>3835879.18</v>
       </c>
       <c r="U16">
         <v>3986756.9699999997</v>
       </c>
-      <c r="V16" s="58">
+      <c r="V16" s="55">
         <v>0</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="35"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="33"/>
     </row>
-    <row r="17" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -38877,25 +39584,25 @@
       <c r="N17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="33">
         <v>2000</v>
       </c>
-      <c r="S17" s="57">
+      <c r="S17" s="54">
         <v>584656.72</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="33">
         <v>4398411.07</v>
       </c>
       <c r="U17">
         <v>4335093.99</v>
       </c>
-      <c r="V17" s="60">
+      <c r="V17" s="57">
         <v>0</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
     </row>
-    <row r="18" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -38938,25 +39645,25 @@
       <c r="N18" s="18">
         <v>2.35</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="33">
         <v>3000</v>
       </c>
-      <c r="S18" s="57">
+      <c r="S18" s="54">
         <v>522406.21</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="33">
         <v>2496370.71</v>
       </c>
       <c r="U18">
         <v>2390450</v>
       </c>
-      <c r="V18" s="60">
+      <c r="V18" s="57">
         <v>0.189</v>
       </c>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
     </row>
-    <row r="19" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="17" thickBot="1">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -39000,7 +39707,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="17" thickBot="1">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -39044,210 +39751,210 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:24" ht="16" thickBot="1">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <v>500</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>0</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="30">
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="29">
         <v>2580.48</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>517</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="29">
         <v>4898</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <v>2813</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="29">
         <v>3809.8</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="29">
         <v>3991.35</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="29">
         <v>4531.83</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <v>39.79</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="29">
         <v>3980351.63</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="31">
         <v>10.28</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:24" ht="16" thickBot="1">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="29">
         <v>1000</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>0</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="30">
         <v>0</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="29">
         <v>13838.88</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="29">
         <v>618</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="29">
         <v>19639</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="29">
         <v>15053</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="29">
         <v>16658.900000000001</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="29">
         <v>17004.849999999999</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="29">
         <v>17635.509999999998</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="29">
         <v>38.340000000000003</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="29">
         <v>3835879.18</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="31">
         <v>9.94</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:24" ht="16" thickBot="1">
+      <c r="A23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="33">
         <v>2000</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <v>0</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>0</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="33">
         <v>35010.35</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="33">
         <v>840</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="33">
         <v>42893</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="33">
         <v>36357.5</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="33">
         <v>38792.9</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>39443.199999999997</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>40594.769999999997</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="33">
         <v>43.94</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="33">
         <v>4398411.07</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="35">
         <v>11.42</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:24">
+      <c r="A24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="33">
         <v>3000</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
         <v>567</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <v>0.1893</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="33">
         <v>43734.2</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="33">
         <v>16</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="33">
         <v>95683</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="33">
         <v>46691.5</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="33">
         <v>88010.5</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>90771.65</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="33">
         <v>93575.34</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="33">
         <v>30.75</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="33">
         <v>2496370.71</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="35">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="16" thickBot="1"/>
+    <row r="29" spans="1:24" ht="16" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="96"/>
     </row>
-    <row r="30" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -39291,7 +39998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
@@ -39339,7 +40046,7 @@
         <v>922996.29</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="17" thickBot="1">
       <c r="A32" s="12" t="s">
         <v>19</v>
       </c>
@@ -39383,51 +40090,51 @@
         <v>443179.09</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O37" si="0">M32+N32</f>
+        <f t="shared" ref="O32:O36" si="0">M32+N32</f>
         <v>1477276.94</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:15" ht="16" thickBot="1">
+      <c r="A33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>300</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>0</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>0</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>1139.1600000000001</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="33">
         <v>467</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>4177</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>1005</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="33">
         <v>1861</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1948.45</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>2452.4</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="33">
         <v>22.54</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="33">
         <v>1577792.76</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="35">
         <v>676188.24</v>
       </c>
       <c r="O33">
@@ -39435,47 +40142,47 @@
         <v>2253981</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:15" ht="16" thickBot="1">
+      <c r="A34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="29">
         <v>500</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="29">
         <v>0</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="30">
         <v>0</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="29">
         <v>2640.5</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>487</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="29">
         <v>5318</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="29">
         <v>2779.5</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="29">
         <v>3897.1</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="29">
         <v>4150.75</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="29">
         <v>4944.96</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="29">
         <v>35.11</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="29">
         <v>2458531.2799999998</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="31">
         <v>1053640.43</v>
       </c>
       <c r="O34">
@@ -39483,47 +40190,47 @@
         <v>3512171.71</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:15" ht="16" thickBot="1">
+      <c r="A35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>1000</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>0</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>0</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>14428.55</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="33">
         <v>503</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>21769</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="33">
         <v>15316</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="33">
         <v>17815.099999999999</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>18454.900000000001</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>19532.71</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="33">
         <v>39.85</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="33">
         <v>2790742.44</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="35">
         <v>1196014.53</v>
       </c>
       <c r="O35">
@@ -39531,47 +40238,47 @@
         <v>3986756.9699999997</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:15" ht="16" thickBot="1">
+      <c r="A36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="33">
         <v>2000</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="33">
         <v>0</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="34">
         <v>0</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="33">
         <v>34824.71</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="33">
         <v>628</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="33">
         <v>43276</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="33">
         <v>36036</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="33">
         <v>39674.6</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>40681.699999999997</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="33">
         <v>42184.55</v>
       </c>
-      <c r="L36" s="35">
+      <c r="L36" s="33">
         <v>43.31</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="33">
         <v>3034571.68</v>
       </c>
-      <c r="N36" s="37">
+      <c r="N36" s="35">
         <v>1300522.31</v>
       </c>
       <c r="O36">
@@ -39579,45 +40286,45 @@
         <v>4335093.99</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:15">
+      <c r="A37" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="33">
         <v>3000</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="33">
         <v>567</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="34">
         <v>0.1893</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="33">
         <v>43734.2</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="33">
         <v>16</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="33">
         <v>95683</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="33">
         <v>46691.5</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="33">
         <v>88010.5</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>90771.65</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="33">
         <v>93575.34</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="33">
         <v>30.75</v>
       </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="37"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="35"/>
       <c r="O37">
         <v>2390450</v>
       </c>
@@ -39652,410 +40359,410 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="R1" s="53" t="s">
+      <c r="N1" s="96"/>
+      <c r="R1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="64">
         <v>100</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="64">
         <v>34967.85</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="67">
+      <c r="T2" s="29"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="35"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="33"/>
     </row>
-    <row r="3" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:24" ht="17" thickTop="1" thickBot="1">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>100</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>0</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>0</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>28789.83</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="33">
         <v>21146</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="33">
         <v>35451</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="33">
         <v>28351.5</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="33">
         <v>34810.400000000001</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="33">
         <v>34967.85</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="33">
         <v>35449.89</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="33">
         <v>2.73</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="35">
         <v>2297490.77</v>
       </c>
-      <c r="R3" s="67">
+      <c r="R3" s="64">
         <v>200</v>
       </c>
-      <c r="S3" s="67">
+      <c r="S3" s="64">
         <v>75040.5</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="67">
+      <c r="T3" s="29"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="64">
         <v>2.41</v>
       </c>
-      <c r="W3" s="31"/>
-      <c r="X3" s="35"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="33"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:24" ht="16" thickBot="1">
+      <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>200</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>0</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>67158.75</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>46056</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="33">
         <v>77153</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="33">
         <v>68785</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="33">
         <v>74252.100000000006</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="33">
         <v>75040.5</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <v>76638.94</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="33">
         <v>2.41</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="33">
         <v>2.87</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <v>2414551.94</v>
       </c>
-      <c r="R4" s="66">
+      <c r="R4" s="63">
         <v>300</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="63">
         <v>126196.2</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="66">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="63">
         <v>2.2200000000000002</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
     </row>
-    <row r="5" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:24" ht="16" thickBot="1">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>300</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>0</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>111807.12</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>83966</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>133917</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="29">
         <v>112484.5</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="29">
         <v>123685.7</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="29">
         <v>126196.2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="29">
         <v>133356.91</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="29">
         <v>2.2200000000000002</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="29">
         <v>2.64</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>2223426.7599999998</v>
       </c>
-      <c r="R5" s="67">
+      <c r="R5" s="64">
         <v>400</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="64">
         <v>157663.20000000001</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="67">
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="64">
         <v>2.41</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:24" ht="16" thickBot="1">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>400</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>0</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>0</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>147510.16</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>118162</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>159195</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>149860</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>157075.9</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>157663.20000000001</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>158553.9</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="33">
         <v>2.41</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="33">
         <v>2.87</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>2410255.0099999998</v>
       </c>
-      <c r="R6" s="67">
+      <c r="R6" s="64">
         <v>500</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="64">
         <v>212952.75</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="33">
         <v>147276.4</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="67">
+      <c r="U6" s="33"/>
+      <c r="V6" s="64">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="33">
         <v>3.23</v>
       </c>
-      <c r="X6" s="35"/>
+      <c r="X6" s="33"/>
     </row>
-    <row r="7" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:24" ht="16" thickBot="1">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>500</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>0</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>0</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>198150.83</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>140649</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>215752</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="33">
         <v>206306</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="33">
         <v>212060.6</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <v>212952.75</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>214623.99</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="33">
         <v>2.2599999999999998</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="33">
         <v>2.69</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>2262286.91</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="50">
         <v>600</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="31">
+      <c r="S7" s="50"/>
+      <c r="T7" s="29">
         <v>165921.70000000001</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="31">
+      <c r="U7" s="33"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="29">
         <v>2.96</v>
       </c>
-      <c r="X7" s="35"/>
+      <c r="X7" s="33"/>
     </row>
-    <row r="8" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="16" thickBot="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>600</v>
       </c>
       <c r="C8" s="13"/>
@@ -40070,23 +40777,23 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="18"/>
-      <c r="R8" s="52">
+      <c r="R8" s="50">
         <v>800</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="35">
+      <c r="S8" s="50"/>
+      <c r="T8" s="33">
         <v>239085.05</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="35">
+      <c r="U8" s="33"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="33">
         <v>3.1</v>
       </c>
-      <c r="X8" s="35"/>
+      <c r="X8" s="33"/>
     </row>
-    <row r="9" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="16" thickBot="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>800</v>
       </c>
       <c r="C9" s="13"/>
@@ -40101,18 +40808,18 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="18"/>
-      <c r="R9" s="52">
+      <c r="R9" s="50">
         <v>1000</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="33">
         <v>310569.45</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="33">
         <v>3.12</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+    <row r="10" spans="1:24" ht="16" thickBot="1">
+      <c r="B10" s="38">
         <v>1000</v>
       </c>
       <c r="C10" s="13"/>
@@ -40128,122 +40835,122 @@
       <c r="M10" s="13"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R11" s="53" t="s">
+    <row r="11" spans="1:24" ht="16" thickBot="1">
+      <c r="R11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="54" t="s">
+      <c r="U11" s="43" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="54"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
     </row>
-    <row r="12" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R12" s="67">
+    <row r="12" spans="1:24" ht="17" thickTop="1" thickBot="1">
+      <c r="R12" s="64">
         <v>100</v>
       </c>
-      <c r="S12" s="70">
+      <c r="S12" s="67">
         <v>2297490.77</v>
       </c>
       <c r="T12" s="13"/>
-      <c r="V12" s="58">
+      <c r="V12" s="55">
         <v>0</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R13" s="67">
+    <row r="13" spans="1:24" ht="16" thickBot="1">
+      <c r="R13" s="64">
         <v>200</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="67">
         <v>2414551.94</v>
       </c>
       <c r="T13" s="13"/>
-      <c r="V13" s="59">
+      <c r="V13" s="56">
         <v>0</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="66">
+    <row r="14" spans="1:24" ht="16" thickBot="1">
+      <c r="R14" s="63">
         <v>300</v>
       </c>
-      <c r="S14" s="69">
+      <c r="S14" s="66">
         <v>2223426.7599999998</v>
       </c>
       <c r="T14" s="13"/>
-      <c r="V14" s="58">
+      <c r="V14" s="55">
         <v>0</v>
       </c>
       <c r="W14" s="13"/>
-      <c r="X14" s="35"/>
+      <c r="X14" s="33"/>
     </row>
-    <row r="15" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R15" s="67">
+    <row r="15" spans="1:24" ht="16" thickBot="1">
+      <c r="R15" s="64">
         <v>400</v>
       </c>
-      <c r="S15" s="70">
+      <c r="S15" s="67">
         <v>2410255.0099999998</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="V15" s="60">
+      <c r="T15" s="29"/>
+      <c r="V15" s="57">
         <v>0</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="16" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="R16" s="67">
+      <c r="N16" s="96"/>
+      <c r="R16" s="64">
         <v>500</v>
       </c>
-      <c r="S16" s="70">
+      <c r="S16" s="67">
         <v>2262286.91</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="35">
         <v>3232354.49</v>
       </c>
-      <c r="V16" s="58">
+      <c r="V16" s="55">
         <v>0</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="35"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="33"/>
     </row>
-    <row r="17" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -40286,292 +40993,292 @@
       <c r="N17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="52">
+      <c r="R17" s="50">
         <v>600</v>
       </c>
-      <c r="S17" s="57"/>
-      <c r="T17" s="33">
+      <c r="S17" s="54"/>
+      <c r="T17" s="31">
         <v>2964078.93</v>
       </c>
-      <c r="V17" s="58">
+      <c r="V17" s="55">
         <v>0</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
     </row>
-    <row r="18" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:24" ht="17" thickTop="1" thickBot="1">
+      <c r="A18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="33">
         <v>500</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>0</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>0</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>131173.20000000001</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>78596</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="33">
         <v>148956</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="33">
         <v>133781.5</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>146119.9</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>147276.4</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>148289.22</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="33">
         <v>3.23</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="33">
         <v>3.85</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="35">
         <v>3232354.49</v>
       </c>
-      <c r="R18" s="52">
+      <c r="R18" s="50">
         <v>800</v>
       </c>
-      <c r="S18" s="57"/>
-      <c r="T18" s="37">
+      <c r="S18" s="54"/>
+      <c r="T18" s="35">
         <v>3099184.04</v>
       </c>
-      <c r="V18" s="59">
+      <c r="V18" s="56">
         <v>0</v>
       </c>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
     </row>
-    <row r="19" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:24" ht="16" thickBot="1">
+      <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="29">
         <v>600</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>0</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="30">
         <v>0</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="29">
         <v>130304.42</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <v>59475</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="29">
         <v>171125</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="29">
         <v>129389.5</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="29">
         <v>161594.5</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="29">
         <v>165921.70000000001</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="29">
         <v>168439.24</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="29">
         <v>2.96</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="29">
         <v>3.53</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="31">
         <v>2964078.93</v>
       </c>
-      <c r="R19" s="52">
+      <c r="R19" s="50">
         <v>1000</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="35">
         <v>3120254.2</v>
       </c>
-      <c r="V19" s="58">
+      <c r="V19" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:24" ht="16" thickBot="1">
+      <c r="A20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>800</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>0</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>0</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>203752.83</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>119486</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>242834</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>213512.5</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <v>238099.4</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>239085.05</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>240733.82</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="33">
         <v>3.1</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="33">
         <v>3.69</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="35">
         <v>3099184.04</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:24" ht="16" thickBot="1">
+      <c r="A21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>1000</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>0</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>0</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>272961.96999999997</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>169193</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>315454</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>285956.5</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>309400.5</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>310569.45</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>312256.2</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="33">
         <v>3.12</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="33">
         <v>3.73</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="35">
         <v>3120254.2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="33"/>
+    <row r="22" spans="1:24" ht="16" thickBot="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="37"/>
+    <row r="23" spans="1:24" ht="16" thickBot="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="37"/>
+    <row r="24" spans="1:24">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="35"/>
     </row>
-    <row r="28" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="16" thickBot="1"/>
+    <row r="29" spans="1:24" ht="16" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
       <c r="L29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="96"/>
     </row>
-    <row r="30" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="17" thickTop="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -40615,47 +41322,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:24" ht="17" thickTop="1" thickBot="1">
+      <c r="A31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <v>100</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>0</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>20734.5</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="33">
         <v>8879</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="33">
         <v>26141</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="33">
         <v>21457.5</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="33">
         <v>24016.1</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>24348.95</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>26131.040000000001</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="33">
         <v>3.09</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="33">
         <v>2166192.08</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="35">
         <v>928366.64</v>
       </c>
       <c r="O31">
@@ -40663,47 +41370,47 @@
         <v>3094558.7200000002</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:24" ht="16" thickBot="1">
+      <c r="A32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="33">
         <v>200</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>0</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="34">
         <v>0</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>44188.36</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="33">
         <v>23211</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="33">
         <v>49862</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="33">
         <v>45377</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="33">
         <v>48332.2</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>48817.4</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <v>49767.07</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="33">
         <v>3.53</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="33">
         <v>2472261.31</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="35">
         <v>1059539.2</v>
       </c>
       <c r="O32">
@@ -40711,47 +41418,47 @@
         <v>3531800.51</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:15" ht="16" thickBot="1">
+      <c r="A33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>300</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>0</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>0</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>74182.350000000006</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="33">
         <v>41756</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>220943</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>60869.5</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="33">
         <v>127193.4</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>199161.35</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>219594.26</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="33">
         <v>1.32</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="33">
         <v>921767.78</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="35">
         <v>395042.77</v>
       </c>
       <c r="O33">
@@ -40759,67 +41466,67 @@
         <v>1316810.55</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="33"/>
+    <row r="34" spans="1:15" ht="16" thickBot="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="31"/>
       <c r="O34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:15" ht="16" thickBot="1">
+      <c r="A35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="33">
         <v>314</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>0</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>0</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>106394.2</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="33">
         <v>78923</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>117891</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="33">
         <v>106972</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="33">
         <v>114299.5</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>115504.75</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>117226.1</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="33">
         <v>2.58</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="33">
         <v>1348163.84</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="35">
         <v>1233086.93</v>
       </c>
       <c r="O35">
@@ -40827,41 +41534,41 @@
         <v>2581250.77</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="37"/>
+    <row r="36" spans="1:15" ht="16" thickBot="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="35"/>
       <c r="O36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="37"/>
+    <row r="37" spans="1:15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="35"/>
       <c r="O37">
         <v>2390450</v>
       </c>
@@ -40896,249 +41603,249 @@
       <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+    <row r="1" spans="1:14" ht="16" thickBot="1"/>
+    <row r="2" spans="1:14" ht="16" thickBot="1">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="77"/>
+      <c r="N2" s="98"/>
     </row>
-    <row r="3" spans="1:14" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:14" ht="17" thickTop="1" thickBot="1">
+      <c r="A3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:14" ht="17" thickTop="1" thickBot="1">
+      <c r="A4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="78">
         <v>100</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="78">
         <v>0</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="79">
         <v>0</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="78">
         <v>762527.4</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="78">
         <v>418877</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="78">
         <v>1295075</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="78">
         <v>667124</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="78">
         <v>1145805.3</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="78">
         <v>1215593.75</v>
       </c>
-      <c r="K4" s="83">
+      <c r="K4" s="78">
         <v>1294976.3600000001</v>
       </c>
-      <c r="L4" s="83">
+      <c r="L4" s="78">
         <v>0.08</v>
       </c>
-      <c r="M4" s="83">
+      <c r="M4" s="78">
         <v>0.09</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="80">
         <v>1156422.76</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:14" ht="16" thickBot="1">
+      <c r="A5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="59">
         <v>10</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="59">
         <v>0</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="60">
         <v>0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="59">
         <v>453343.1</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="59">
         <v>427462</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="59">
         <v>606087</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="59">
         <v>436975</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="59">
         <v>590480.6</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="59">
         <v>606087</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="59">
         <v>606087</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="59">
         <v>0.02</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="59">
         <v>0.02</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="61">
         <v>492893.32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="45">
         <v>20</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="46">
         <v>0</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="45">
         <v>1151222.8500000001</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>524391</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>2235716</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="45">
         <v>1072419</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="45">
         <v>2189514.4</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="45">
         <v>2235510.15</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="45">
         <v>2235716</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="45">
         <v>0.01</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="45">
         <v>0.01</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="47">
         <v>267741.7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16" thickBot="1"/>
+    <row r="12" spans="1:14" ht="16" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
       <c r="L12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="29"/>
+      <c r="N12" s="96"/>
     </row>
-    <row r="13" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="17" thickTop="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -41182,47 +41889,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:14" ht="16" thickTop="1">
+      <c r="A14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="45">
         <v>100</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="45">
         <v>0</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46">
         <v>0</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="45">
         <v>762527.4</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <v>418877</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="45">
         <v>1295075</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="45">
         <v>667124</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="45">
         <v>1145805.3</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="45">
         <v>1215593.75</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="45">
         <v>1294976.3600000001</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="45">
         <v>0.08</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="45">
         <v>0.09</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="47">
         <v>1156422.76</v>
       </c>
     </row>
